--- a/biology/Botanique/Burretiokentia_vieillardii/Burretiokentia_vieillardii.xlsx
+++ b/biology/Botanique/Burretiokentia_vieillardii/Burretiokentia_vieillardii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Burretiokentia vieillardi est une espèce de palmier originaire de Nouvelle-Calédonie.
 </t>
@@ -511,13 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Palmier solitaire de 8 à 15 m ; tronc brun verdâtre, annelé, d'environ 15 cm de diamètre ; de 9 à 10 feuilles pennées  de couleur verte olive ; folioles alternes; les deux centrales de quelque 73 cm de long par quelque 5 cm de large ; allongés au sommet. Inflorescences denses, sous la structure tabulaire verdâtre , fleurs monoique. Fruits ovales d'environ 15 mm de long, de couleur rouge a maturité.
-Origine et habitat
-Ce palmier, originaire de Nouvelle-Calédonie, a été cultivée dans le Jardin Botanique de Caracas, au Venezuela. Il requiert de climats assez humides. Il peut prospérer en des lieux de climat tropical ou subtropical chaud.
-Propagation et culture
-Il se propage par graines. Ceux semées à Caracas  ont germé au bout de 5 mois. L'arrosage doit être très fréquent.
 </t>
         </is>
       </c>
@@ -543,12 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Usages</t>
+          <t>Caractéristiques</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Très ornemental en  jardins et dans des parcs des régions tropicale . Il se plante sous forme groupé.
+          <t>Origine et habitat</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce palmier, originaire de Nouvelle-Calédonie, a été cultivée dans le Jardin Botanique de Caracas, au Venezuela. Il requiert de climats assez humides. Il peut prospérer en des lieux de climat tropical ou subtropical chaud.
 </t>
         </is>
       </c>
@@ -574,20 +590,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Propagation et culture</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se propage par graines. Ceux semées à Caracas  ont germé au bout de 5 mois. L'arrosage doit être très fréquent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Burretiokentia_vieillardii</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Burretiokentia_vieillardii</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Usages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Très ornemental en  jardins et dans des parcs des régions tropicale . Il se plante sous forme groupé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Burretiokentia_vieillardii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Burretiokentia_vieillardii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Burretiokentia vieillardii , a été décrite par (Brongn. &amp; Gris) Pic.Serm. , et fut publié sur Webbia 11: 124. en 1955[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Burretiokentia vieillardii , a été décrite par (Brongn. &amp; Gris) Pic.Serm. , et fut publié sur Webbia 11: 124. en 1955.
 Étymologie
-Burretiokentia: Nom générique qui est consacré au  botaniste allemand Max Burret, et à  l'horticulteur William Kent, conservateur du Jardin Botanique de Buitenzorg sur Java[3].
+Burretiokentia: Nom générique qui est consacré au  botaniste allemand Max Burret, et à  l'horticulteur William Kent, conservateur du Jardin Botanique de Buitenzorg sur Java.
 vieillardii: épithète attribué en honneur du botaniste français Eugène Vieillard (1819-1896).
 Synonymie
 Cyphosperma vieillardii (Brongn. &amp; Gris) G.Nicholson    (1884)
 Cyphosperma vieillardii (Brongn. &amp; Gris) H.Wendl. ex Hook.f. (1884)
 Kentia vieillardii Brongn. &amp; Gris (1864).
-Rhynchocarpa vieillardii (Brongn. &amp; Gris) Becc. (1920)[4],[5].</t>
+Rhynchocarpa vieillardii (Brongn. &amp; Gris) Becc. (1920),.</t>
         </is>
       </c>
     </row>
